--- a/XGBoost/Results/Results xgb.xlsx
+++ b/XGBoost/Results/Results xgb.xlsx
@@ -5,101 +5,139 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\XGBoost\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\XGBoost\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A50DC5-8D2A-4A35-A06E-A21DFBBF0406}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345A156C-0DBF-43C8-83AA-4A8F752F3127}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XGBoost" sheetId="2" r:id="rId1"/>
-    <sheet name="По сезонам" sheetId="3" r:id="rId2"/>
+    <sheet name="По годам" sheetId="1" r:id="rId1"/>
+    <sheet name="По годам CV" sheetId="2" r:id="rId2"/>
+    <sheet name="По сезонам" sheetId="3" r:id="rId3"/>
+    <sheet name="По сезонам CV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="36">
   <si>
     <t>С определённого года по н.в.</t>
   </si>
   <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.1, 'max_depth': 3, 'max_features': 0.1, 'n_estimators': 626, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Весна</t>
+  </si>
+  <si>
+    <t>Лето</t>
+  </si>
+  <si>
+    <t>Осень</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.325, 'n_estimators': 750, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 1.0, 'n_estimators': 1000, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2022-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}</t>
+  </si>
+  <si>
     <t>По годам</t>
   </si>
   <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Зима</t>
-  </si>
-  <si>
-    <t>Весна</t>
-  </si>
-  <si>
-    <t>Лето</t>
-  </si>
-  <si>
-    <t>Осень</t>
+    <t>2019-01-01 — 2020-01-01 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2020-12-31 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2022-01-01 {'learning_rate': 0.1, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>Valid + CV</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>2020-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.325, 'n_estimators': 750, 'subsample': 1.0}</t>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 802, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 604, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 3, 'n_estimators': 1000, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2022-01-01 — 2023-03-22 {'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2020-01-01 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2020-12-31 {'learning_rate': 0.05, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2022-01-01 {'learning_rate': 0.05, 'max_depth': 3, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'learning_rate': 0.1, 'max_depth': 2, 'max_features': 0.325, 'n_estimators': 251, 'subsample': 1.0}	</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'max_depth': 2, 'max_features': 0.1, 'n_estimators': 251, 'subsample': 0.5}</t>
   </si>
   <si>
     <t xml:space="preserve">{'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}	</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'max_depth': 2, 'max_features': 0.1, 'n_estimators': 251, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'learning_rate': 0.1, 'max_depth': 2, 'max_features': 0.325, 'n_estimators': 251, 'subsample': 1.0}	</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2021-01-02 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 1.0, 'n_estimators': 1000, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2022-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2020-01-01 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 1.0}</t>
-  </si>
-  <si>
-    <t>2020-01-01 — 2020-12-31 {'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2021-01-02 — 2022-01-01 {'learning_rate': 0.1, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.1, 'max_depth': 3, 'max_features': 0.1, 'n_estimators': 626, 'subsample': 1.0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +193,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -182,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,11 +311,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -281,7 +363,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -295,19 +377,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,9 +398,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -362,7 +458,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0400ABD-F995-4677-907E-1739E3648615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -384,6 +480,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -406,7 +505,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B80EE7-91BE-436A-997D-4FA4A0169B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,6 +527,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -450,7 +552,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E4B5DD-4508-4028-A882-A44C5AB1157B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -472,6 +574,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -494,7 +599,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416DEFCA-FF7E-4317-92E6-3748E6779764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,6 +621,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -807,70 +915,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-    </row>
-    <row r="2" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>8</v>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>21.312000000000001</v>
@@ -893,7 +1001,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>3.0846</v>
@@ -916,7 +1024,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>0.23549999999999999</v>
@@ -939,7 +1047,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>0.97619999999999996</v>
@@ -967,32 +1075,32 @@
       <c r="AF7" s="5"/>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:32" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>10</v>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>15.3743</v>
@@ -1017,7 +1125,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>2.6652999999999998</v>
@@ -1040,7 +1148,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>0.21829999999999999</v>
@@ -1063,7 +1171,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>0.98299999999999998</v>
@@ -1088,32 +1196,32 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5">
         <v>2.8048000000000002</v>
@@ -1136,7 +1244,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5">
         <v>1.3756999999999999</v>
@@ -1159,7 +1267,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="5">
         <v>0.1308</v>
@@ -1182,7 +1290,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" s="5">
         <v>0.997</v>
@@ -1205,32 +1313,32 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" s="5">
         <v>16.740200000000002</v>
@@ -1253,7 +1361,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" s="5">
         <v>2.7761</v>
@@ -1278,7 +1386,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5">
         <v>0.25480000000000003</v>
@@ -1304,7 +1412,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B27" s="5">
         <v>0.98460000000000003</v>
@@ -1328,52 +1436,52 @@
       <c r="M27" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-    </row>
-    <row r="31" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="A30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5">
         <v>11.050800000000001</v>
@@ -1396,7 +1504,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B33" s="5">
         <v>2.4910000000000001</v>
@@ -1419,7 +1527,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" s="5">
         <v>0.18160000000000001</v>
@@ -1442,7 +1550,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B35" s="5">
         <v>0.98880000000000001</v>
@@ -1463,32 +1571,32 @@
         <v>-2.2427999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>8</v>
+      <c r="D38" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5">
         <v>6.2160000000000002</v>
@@ -1511,7 +1619,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B40" s="5">
         <v>2.0249000000000001</v>
@@ -1534,7 +1642,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B41" s="5">
         <v>0.18090000000000001</v>
@@ -1557,7 +1665,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5">
         <v>0.98809999999999998</v>
@@ -1578,32 +1686,32 @@
         <v>-1.0851</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B46" s="5">
         <v>1.7032</v>
@@ -1626,7 +1734,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B47" s="5">
         <v>0.99490000000000001</v>
@@ -1649,7 +1757,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" s="5">
         <v>7.6999999999999999E-2</v>
@@ -1672,7 +1780,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5">
         <v>0.99780000000000002</v>
@@ -1699,29 +1807,924 @@
     <mergeCell ref="A30:Q30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C12CE-3C9B-4AE8-8CC2-E676AF95904E}">
-  <dimension ref="A1:AA5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+    </row>
+    <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>52.466799999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>199.34620340554571</v>
+      </c>
+      <c r="D3" s="5">
+        <v>328.49810000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>49.325899999999997</v>
+      </c>
+      <c r="F3" s="5">
+        <v>54.435299999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>22.148700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.8376999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.3770134383292802</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13.5189</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.6811999999999996</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.6372</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.9241999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.51482864364438596</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.3921</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.56089999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.9415</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.77519052591794013</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.75309999999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.1172</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.50290000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>30.724599999999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>199.23701367923249</v>
+      </c>
+      <c r="D10" s="5">
+        <v>358.7079</v>
+      </c>
+      <c r="E10" s="5">
+        <v>46.909799999999997</v>
+      </c>
+      <c r="F10" s="5">
+        <v>27.912099999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>28.218699999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3.7595000000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.9607542409388099</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13.584099999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5.4401000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.9628000000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.9239000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.47852604397375431</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.49149999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.56320000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.76878512676123978</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.5131</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.36670000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>53.640599999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <v>262.13509943317598</v>
+      </c>
+      <c r="D17" s="5">
+        <v>548.28750000000002</v>
+      </c>
+      <c r="E17" s="5">
+        <v>55.521599999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>36.986800000000002</v>
+      </c>
+      <c r="G17" s="5">
+        <v>29.2864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4.9759000000000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9.3906003234264901</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17.281199999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.9894999999999996</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4.9127000000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4.3421000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.37230000000000002</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.56688630384149308</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.63060000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.9425</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.73424724345422598</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.42370000000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.2409</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.34279999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43.526499999999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>269.29963892357591</v>
+      </c>
+      <c r="D24" s="5">
+        <v>683.43259999999998</v>
+      </c>
+      <c r="E24" s="5">
+        <v>77.523799999999994</v>
+      </c>
+      <c r="F24" s="5">
+        <v>36.657299999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>29.485399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4.5964</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9.9463025333160004</v>
+      </c>
+      <c r="D25" s="5">
+        <v>19.085000000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>6.7492000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.6581000000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.3978999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.63096176405271232</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.73870000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.77456734660365534</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.48630000000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.1953</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.33829999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.6966000000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <v>213.97417421732359</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1011.147</v>
+      </c>
+      <c r="E32" s="5">
+        <v>136.7901</v>
+      </c>
+      <c r="F32" s="5">
+        <v>222.21010000000001</v>
+      </c>
+      <c r="G32" s="5">
+        <v>184.0668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2.0261999999999998</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9.3319478751040528</v>
+      </c>
+      <c r="D33" s="5">
+        <v>25.662400000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>7.8502000000000001</v>
+      </c>
+      <c r="F33" s="5">
+        <v>10.966200000000001</v>
+      </c>
+      <c r="G33" s="5">
+        <v>11.5031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.52693711982391378</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.68259999999999998</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.5036</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.7082999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.73032727287460641</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.2399</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-0.41980000000000001</v>
+      </c>
+      <c r="F35" s="5">
+        <v>-3.5606</v>
+      </c>
+      <c r="G35" s="5">
+        <v>-3.1307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4.4888000000000003</v>
+      </c>
+      <c r="C39" s="5">
+        <v>75.767471220457423</v>
+      </c>
+      <c r="D39" s="5">
+        <v>532.97320000000002</v>
+      </c>
+      <c r="E39" s="5">
+        <v>51.8337</v>
+      </c>
+      <c r="F39" s="5">
+        <v>104.7534</v>
+      </c>
+      <c r="G39" s="5">
+        <v>84.218299999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1.6037999999999999</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5.8180914851686234</v>
+      </c>
+      <c r="D40" s="5">
+        <v>17.511199999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>5.6295999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>6.8338999999999999</v>
+      </c>
+      <c r="G40" s="5">
+        <v>6.5533000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.39069681187692451</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.75949999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.85940361944222232</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G42" s="5">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>31.4178</v>
+      </c>
+      <c r="C46" s="5">
+        <v>229.84392823619589</v>
+      </c>
+      <c r="D46" s="5">
+        <v>398.54919999999998</v>
+      </c>
+      <c r="E46" s="5">
+        <v>75.870599999999996</v>
+      </c>
+      <c r="F46" s="5">
+        <v>63.736600000000003</v>
+      </c>
+      <c r="G46" s="5">
+        <v>26.280799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4.0857000000000001</v>
+      </c>
+      <c r="C47" s="5">
+        <v>9.349582462455956</v>
+      </c>
+      <c r="D47" s="5">
+        <v>13.924899999999999</v>
+      </c>
+      <c r="E47" s="5">
+        <v>6.0921000000000003</v>
+      </c>
+      <c r="F47" s="5">
+        <v>5.5617999999999999</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3.8184999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.2802</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.58172440331565867</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.49540000000000001</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.50619999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.70991478770387839</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="F49" s="5">
+        <v>-0.30809999999999998</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.41020000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A30:Q30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1730,13 +2733,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -1744,14 +2747,14 @@
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>12</v>
+      <c r="K1" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>2</v>
@@ -1759,14 +2762,14 @@
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>12</v>
+      <c r="S1" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>2</v>
@@ -1775,15 +2778,15 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>39.941600000000001</v>
@@ -1795,7 +2798,7 @@
         <v>577.1694</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2" s="5">
         <v>5.8929999999999998</v>
@@ -1807,7 +2810,7 @@
         <v>44.852699999999999</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="5">
         <v>9.8190000000000008</v>
@@ -1819,7 +2822,7 @@
         <v>22.906500000000001</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X2" s="5">
         <v>1.3133999999999999</v>
@@ -1833,7 +2836,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>5.1365999999999996</v>
@@ -1845,7 +2848,7 @@
         <v>17.151900000000001</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5">
         <v>1.889</v>
@@ -1857,7 +2860,7 @@
         <v>4.6109999999999998</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="5">
         <v>2.0329000000000002</v>
@@ -1869,7 +2872,7 @@
         <v>3.8353999999999999</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X3" s="5">
         <v>0.90820000000000001</v>
@@ -1883,7 +2886,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
         <v>0.20219999999999999</v>
@@ -1895,7 +2898,7 @@
         <v>0.50019999999999998</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" s="5">
         <v>0.18090000000000001</v>
@@ -1907,7 +2910,7 @@
         <v>0.38019999999999998</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="5">
         <v>0.2777</v>
@@ -1919,7 +2922,7 @@
         <v>0.45889999999999997</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5">
         <v>0.11940000000000001</v>
@@ -1933,7 +2936,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
         <v>0.98029999999999995</v>
@@ -1945,7 +2948,7 @@
         <v>0.56610000000000005</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5">
         <v>0.95299999999999996</v>
@@ -1957,7 +2960,7 @@
         <v>0.53439999999999999</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="5">
         <v>0.71740000000000004</v>
@@ -1969,7 +2972,7 @@
         <v>0.52990000000000004</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X5" s="5">
         <v>0.98029999999999995</v>
@@ -1983,7 +2986,310 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D991BB-05E8-491B-96C3-54019F954338}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>29.0502</v>
+      </c>
+      <c r="C3" s="5">
+        <v>647.99162659102205</v>
+      </c>
+      <c r="D3" s="5">
+        <v>550.21929999999998</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5">
+        <v>16.579499999999999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42.415903951213338</v>
+      </c>
+      <c r="J3" s="5">
+        <v>41.878999999999998</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="5">
+        <v>20.517900000000001</v>
+      </c>
+      <c r="O3" s="5">
+        <v>29.806855133125069</v>
+      </c>
+      <c r="P3" s="5">
+        <v>34.108400000000003</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="5">
+        <v>9.1353000000000009</v>
+      </c>
+      <c r="U3" s="5">
+        <v>24.329150063198359</v>
+      </c>
+      <c r="V3" s="5">
+        <v>23.203600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4.0262000000000002</v>
+      </c>
+      <c r="C4" s="5">
+        <v>16.145931760811809</v>
+      </c>
+      <c r="D4" s="5">
+        <v>17.2364</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.1808000000000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.877862104942686</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4.4805000000000001</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.8595999999999999</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3.698480171470965</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4.0861000000000001</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="5">
+        <v>2.3336000000000001</v>
+      </c>
+      <c r="U4" s="5">
+        <v>3.447738528687613</v>
+      </c>
+      <c r="V4" s="5">
+        <v>3.8332999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1578</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.41672630000359501</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.36820480221488933</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.42585994381284592</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.3044</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.40008260678204383</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.5857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6810388241287797</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.8679</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.63155424932156246</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.14188296998560521</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.8629</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.53641609548132174</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.4793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XGBoost/Results/Results xgb.xlsx
+++ b/XGBoost/Results/Results xgb.xlsx
@@ -5,25 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\XGBoost\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\XGBoost\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345A156C-0DBF-43C8-83AA-4A8F752F3127}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB993AC-66B7-4FD0-97A1-2DAE4948FCBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="По годам" sheetId="1" r:id="rId1"/>
-    <sheet name="По годам CV" sheetId="2" r:id="rId2"/>
-    <sheet name="По сезонам" sheetId="3" r:id="rId3"/>
-    <sheet name="По сезонам CV" sheetId="4" r:id="rId4"/>
+    <sheet name="По годам Valid + CV" sheetId="2" r:id="rId2"/>
+    <sheet name="По годам CV" sheetId="6" r:id="rId3"/>
+    <sheet name="По сезонам" sheetId="3" r:id="rId4"/>
+    <sheet name="По сезонам Valid + CV" sheetId="4" r:id="rId5"/>
+    <sheet name="По сезонам CV" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="45">
   <si>
     <t>С определённого года по н.в.</t>
   </si>
@@ -82,25 +84,10 @@
     <t>2021-01-02 — 2022-01-01 {'learning_rate': 0.1, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}</t>
   </si>
   <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 0.5}</t>
   </si>
   <si>
     <t>Valid + CV</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 802, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 208, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 604, 'subsample': 0.5}</t>
-  </si>
-  <si>
-    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 0.5}</t>
   </si>
   <si>
     <t>2020-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 1000, 'subsample': 0.5}</t>
@@ -121,6 +108,9 @@
     <t>2021-01-02 — 2022-01-01 {'learning_rate': 0.05, 'max_depth': 3, 'n_estimators': 208, 'subsample': 0.5}</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>{'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.775, 'n_estimators': 251, 'subsample': 0.5}</t>
   </si>
   <si>
@@ -132,12 +122,51 @@
   <si>
     <t xml:space="preserve">{'learning_rate': 0.05, 'max_depth': 3, 'max_features': 0.55, 'n_estimators': 251, 'subsample': 1.0}	</t>
   </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 802, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 604, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 406, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 3, 'n_estimators': 406, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 2, 'n_estimators': 1000, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2023-03-22 {'learning_rate': 0.05, 'max_depth': 2, 'n_estimators': 406, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2022-01-01 — 2023-03-22 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2019-01-01 — 2020-01-01 {'learning_rate': 0.1, 'max_depth': 2, 'n_estimators': 10, 'subsample': 1.0}</t>
+  </si>
+  <si>
+    <t>2020-01-01 — 2020-12-31 {'learning_rate': 0.01, 'max_depth': 4, 'n_estimators': 208, 'subsample': 0.5}</t>
+  </si>
+  <si>
+    <t>2021-01-02 — 2022-04-06 {'learning_rate': 0.01, 'max_depth': 3, 'n_estimators': 406, 'subsample': 0.5}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +236,18 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -234,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -341,11 +382,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -410,17 +481,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -924,34 +1011,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="24" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1436,25 +1523,25 @@
       <c r="M27" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -1815,40 +1902,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>2</v>
@@ -1971,7 +2058,7 @@
     </row>
     <row r="9" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>2</v>
@@ -2086,7 +2173,7 @@
     </row>
     <row r="16" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>2</v>
@@ -2210,7 +2297,7 @@
     </row>
     <row r="23" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>2</v>
@@ -2324,29 +2411,29 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>2</v>
@@ -2469,12 +2556,12 @@
     </row>
     <row r="38" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -2584,7 +2671,7 @@
     </row>
     <row r="45" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>2</v>
@@ -2707,19 +2794,2360 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>177.03</v>
+      </c>
+      <c r="C3">
+        <v>292.19</v>
+      </c>
+      <c r="D3">
+        <v>433.74</v>
+      </c>
+      <c r="E3">
+        <v>63.3</v>
+      </c>
+      <c r="F3">
+        <v>55.22</v>
+      </c>
+      <c r="G3">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>8.17</v>
+      </c>
+      <c r="C4">
+        <v>9.82</v>
+      </c>
+      <c r="D4">
+        <v>15.85</v>
+      </c>
+      <c r="E4">
+        <v>6.22</v>
+      </c>
+      <c r="F4">
+        <v>6.41</v>
+      </c>
+      <c r="G4">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.61</v>
+      </c>
+      <c r="D5">
+        <v>0.48</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.84</v>
+      </c>
+      <c r="G5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.81</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.69</v>
+      </c>
+      <c r="D6">
+        <v>0.67</v>
+      </c>
+      <c r="E6">
+        <v>0.34</v>
+      </c>
+      <c r="F6">
+        <v>-0.13</v>
+      </c>
+      <c r="G6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>137.09</v>
+      </c>
+      <c r="C10" s="34">
+        <v>259.55</v>
+      </c>
+      <c r="D10">
+        <v>368.27</v>
+      </c>
+      <c r="E10">
+        <v>52.48</v>
+      </c>
+      <c r="F10">
+        <v>33.83</v>
+      </c>
+      <c r="G10">
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7.03</v>
+      </c>
+      <c r="C11" s="34">
+        <v>9.27</v>
+      </c>
+      <c r="D11">
+        <v>13.76</v>
+      </c>
+      <c r="E11">
+        <v>5.73</v>
+      </c>
+      <c r="F11">
+        <v>4.71</v>
+      </c>
+      <c r="G11">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.43</v>
+      </c>
+      <c r="E12">
+        <v>0.44</v>
+      </c>
+      <c r="F12">
+        <v>0.6</v>
+      </c>
+      <c r="G12">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.85</v>
+      </c>
+      <c r="C13">
+        <v>0.62</v>
+      </c>
+      <c r="D13">
+        <v>0.72</v>
+      </c>
+      <c r="E13">
+        <v>0.46</v>
+      </c>
+      <c r="F13">
+        <v>0.31</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>84.92</v>
+      </c>
+      <c r="C17">
+        <v>373.25</v>
+      </c>
+      <c r="D17">
+        <v>529.44000000000005</v>
+      </c>
+      <c r="E17">
+        <v>59.62</v>
+      </c>
+      <c r="F17">
+        <v>45.14</v>
+      </c>
+      <c r="G17">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>6.04</v>
+      </c>
+      <c r="C18">
+        <v>10.84</v>
+      </c>
+      <c r="D18">
+        <v>16.86</v>
+      </c>
+      <c r="E18">
+        <v>5.88</v>
+      </c>
+      <c r="F18">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G18">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.43</v>
+      </c>
+      <c r="C19">
+        <v>0.61</v>
+      </c>
+      <c r="D19">
+        <v>0.46</v>
+      </c>
+      <c r="E19">
+        <v>0.42</v>
+      </c>
+      <c r="F19">
+        <v>0.6</v>
+      </c>
+      <c r="G19">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.92</v>
+      </c>
+      <c r="C20">
+        <v>0.36</v>
+      </c>
+      <c r="D20">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>0.38</v>
+      </c>
+      <c r="F20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>155.56</v>
+      </c>
+      <c r="C24">
+        <v>605.54999999999995</v>
+      </c>
+      <c r="D24">
+        <v>726.33</v>
+      </c>
+      <c r="E24">
+        <v>73.09</v>
+      </c>
+      <c r="F24">
+        <v>32.17</v>
+      </c>
+      <c r="G24">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>7.17</v>
+      </c>
+      <c r="C25">
+        <v>13.18</v>
+      </c>
+      <c r="D25">
+        <v>19.64</v>
+      </c>
+      <c r="E25">
+        <v>5.79</v>
+      </c>
+      <c r="F25">
+        <v>4.41</v>
+      </c>
+      <c r="G25">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
+      <c r="C26">
+        <v>0.63</v>
+      </c>
+      <c r="D26">
+        <v>0.49</v>
+      </c>
+      <c r="E26">
+        <v>0.37</v>
+      </c>
+      <c r="F26">
+        <v>0.54</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0.87</v>
+      </c>
+      <c r="C27">
+        <v>0.15</v>
+      </c>
+      <c r="D27">
+        <v>0.45</v>
+      </c>
+      <c r="E27">
+        <v>0.24</v>
+      </c>
+      <c r="F27">
+        <v>0.34</v>
+      </c>
+      <c r="G27">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>432.59</v>
+      </c>
+      <c r="C32">
+        <v>723.29</v>
+      </c>
+      <c r="D32">
+        <v>1173.92</v>
+      </c>
+      <c r="E32">
+        <v>94.85</v>
+      </c>
+      <c r="F32">
+        <v>52.22</v>
+      </c>
+      <c r="G32">
+        <v>33.880000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>11.34</v>
+      </c>
+      <c r="C33">
+        <v>13.91</v>
+      </c>
+      <c r="D33">
+        <v>23.43</v>
+      </c>
+      <c r="E33">
+        <v>7.14</v>
+      </c>
+      <c r="F33">
+        <v>6.21</v>
+      </c>
+      <c r="G33">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.43</v>
+      </c>
+      <c r="C34">
+        <v>0.49</v>
+      </c>
+      <c r="D34">
+        <v>0.51</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>0.79</v>
+      </c>
+      <c r="G34">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C35">
+        <v>-0.02</v>
+      </c>
+      <c r="D35">
+        <v>0.12</v>
+      </c>
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="C39" s="34">
+        <v>198.29</v>
+      </c>
+      <c r="D39">
+        <v>620.04</v>
+      </c>
+      <c r="E39">
+        <v>63.92</v>
+      </c>
+      <c r="F39">
+        <v>57.42</v>
+      </c>
+      <c r="G39">
+        <v>43.64</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>5.03</v>
+      </c>
+      <c r="C40" s="34">
+        <v>8.34</v>
+      </c>
+      <c r="D40">
+        <v>17.53</v>
+      </c>
+      <c r="E40">
+        <v>6.04</v>
+      </c>
+      <c r="F40">
+        <v>5.55</v>
+      </c>
+      <c r="G40">
+        <v>4.72</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C41" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="D41">
+        <v>0.43</v>
+      </c>
+      <c r="E41">
+        <v>0.41</v>
+      </c>
+      <c r="F41">
+        <v>0.62</v>
+      </c>
+      <c r="G41">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>0.88</v>
+      </c>
+      <c r="C42">
+        <v>0.23</v>
+      </c>
+      <c r="D42">
+        <v>0.53</v>
+      </c>
+      <c r="E42">
+        <v>0.34</v>
+      </c>
+      <c r="F42">
+        <v>-0.18</v>
+      </c>
+      <c r="G42">
+        <v>0.02</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>104.62</v>
+      </c>
+      <c r="C46">
+        <v>579.71</v>
+      </c>
+      <c r="D46">
+        <v>499.68</v>
+      </c>
+      <c r="E46">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="F46">
+        <v>51.5</v>
+      </c>
+      <c r="G46">
+        <v>30.19</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>6.58</v>
+      </c>
+      <c r="C47">
+        <v>13.7</v>
+      </c>
+      <c r="D47">
+        <v>16.16</v>
+      </c>
+      <c r="E47">
+        <v>6.2</v>
+      </c>
+      <c r="F47">
+        <v>5.47</v>
+      </c>
+      <c r="G47">
+        <v>4.38</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>0.4</v>
+      </c>
+      <c r="C48">
+        <v>0.68</v>
+      </c>
+      <c r="D48">
+        <v>0.42</v>
+      </c>
+      <c r="E48">
+        <v>0.46</v>
+      </c>
+      <c r="F48">
+        <v>0.61</v>
+      </c>
+      <c r="G48">
+        <v>0.64</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>0.91</v>
+      </c>
+      <c r="C49">
+        <v>0.3</v>
+      </c>
+      <c r="D49">
+        <v>0.62</v>
+      </c>
+      <c r="E49">
+        <v>0.3</v>
+      </c>
+      <c r="F49">
+        <v>-0.06</v>
+      </c>
+      <c r="G49">
+        <v>0.32</v>
+      </c>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="27"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="27"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="27"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="27"/>
+      <c r="N148" s="27"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="27"/>
+      <c r="N149" s="27"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="27"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="27"/>
+      <c r="N151" s="27"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="27"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="27"/>
+      <c r="N152" s="27"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="27"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="27"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="27"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="27"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="27"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="27"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="27"/>
+      <c r="M161" s="27"/>
+      <c r="N161" s="27"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="27"/>
+      <c r="M162" s="27"/>
+      <c r="N162" s="27"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="27"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="27"/>
+      <c r="N164" s="27"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="27"/>
+      <c r="M165" s="27"/>
+      <c r="N165" s="27"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="27"/>
+      <c r="M166" s="27"/>
+      <c r="N166" s="27"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="27"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+      <c r="K176" s="27"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="27"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="27"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="27"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A30:Q30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -2733,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -2748,10 +5176,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -2763,10 +5191,10 @@
         <v>3</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>7</v>
@@ -2778,10 +5206,10 @@
         <v>3</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2991,12 +5419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D991BB-05E8-491B-96C3-54019F954338}">
-  <dimension ref="A1:V22"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,57 +5444,57 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="D2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="J2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="25" t="s">
+      <c r="P2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="25" t="s">
-        <v>21</v>
+      <c r="V2" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5">
@@ -3078,7 +5506,7 @@
       <c r="D3" s="5">
         <v>550.21929999999998</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="5">
@@ -3090,7 +5518,7 @@
       <c r="J3" s="5">
         <v>41.878999999999998</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="5">
@@ -3102,7 +5530,7 @@
       <c r="P3" s="5">
         <v>34.108400000000003</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="T3" s="5">
@@ -3116,7 +5544,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5">
@@ -3128,7 +5556,7 @@
       <c r="D4" s="5">
         <v>17.2364</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="5">
@@ -3140,7 +5568,7 @@
       <c r="J4" s="5">
         <v>4.4805000000000001</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="5">
@@ -3152,7 +5580,7 @@
       <c r="P4" s="5">
         <v>4.0861000000000001</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="5">
@@ -3166,7 +5594,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5">
@@ -3178,7 +5606,7 @@
       <c r="D5" s="5">
         <v>0.48359999999999997</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="5">
@@ -3190,7 +5618,7 @@
       <c r="J5" s="5">
         <v>0.35699999999999998</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="5">
@@ -3202,7 +5630,7 @@
       <c r="P5" s="5">
         <v>0.41799999999999998</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="5">
@@ -3216,7 +5644,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5">
@@ -3228,7 +5656,7 @@
       <c r="D6" s="5">
         <v>0.58640000000000003</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="5">
@@ -3240,7 +5668,7 @@
       <c r="J6" s="5">
         <v>0.56530000000000002</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="5">
@@ -3252,7 +5680,7 @@
       <c r="P6" s="5">
         <v>0.3</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="5">
@@ -3264,32 +5692,302 @@
       <c r="V6" s="5">
         <v>0.4793</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="D22" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>380.74</v>
+      </c>
+      <c r="C3">
+        <v>737.38</v>
+      </c>
+      <c r="D3">
+        <v>412.25</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>23.13</v>
+      </c>
+      <c r="I3">
+        <v>50.61</v>
+      </c>
+      <c r="J3">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>11.81</v>
+      </c>
+      <c r="O3">
+        <v>29.64</v>
+      </c>
+      <c r="P3">
+        <v>22.62</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="U3">
+        <v>35.1</v>
+      </c>
+      <c r="V3">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>13.29</v>
+      </c>
+      <c r="C4">
+        <v>17.88</v>
+      </c>
+      <c r="D4">
+        <v>15.2</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>3.69</v>
+      </c>
+      <c r="I4">
+        <v>5.3</v>
+      </c>
+      <c r="J4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>2.4</v>
+      </c>
+      <c r="O4">
+        <v>3.77</v>
+      </c>
+      <c r="P4">
+        <v>3.52</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>2.23</v>
+      </c>
+      <c r="U4">
+        <v>3.92</v>
+      </c>
+      <c r="V4">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.43</v>
+      </c>
+      <c r="C5">
+        <v>0.51</v>
+      </c>
+      <c r="D5">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0.31</v>
+      </c>
+      <c r="I5">
+        <v>0.42</v>
+      </c>
+      <c r="J5">
+        <v>0.35</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0.31</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.41</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>0.27</v>
+      </c>
+      <c r="U5">
+        <v>0.44</v>
+      </c>
+      <c r="V5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.81</v>
+      </c>
+      <c r="C6">
+        <v>0.65</v>
+      </c>
+      <c r="D6">
+        <v>0.69</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>0.81</v>
+      </c>
+      <c r="I6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>0.66</v>
+      </c>
+      <c r="O6">
+        <v>0.13</v>
+      </c>
+      <c r="P6">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>0.85</v>
+      </c>
+      <c r="U6">
+        <v>0.37</v>
+      </c>
+      <c r="V6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/XGBoost/Results/Results xgb.xlsx
+++ b/XGBoost/Results/Results xgb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\Научная работа\XGBoost\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виталий\Desktop\учеба\Научная работа\XGBoost\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB993AC-66B7-4FD0-97A1-2DAE4948FCBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5568D0-DC92-4E34-AC63-C3D3D57B2678}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -494,10 +494,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -508,6 +504,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1020,25 +1026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:32" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1523,25 +1529,25 @@
       <c r="M27" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -1913,25 +1919,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2411,25 +2417,25 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
@@ -2797,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,34 +2813,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
     </row>
     <row r="2" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -2926,7 +2932,7 @@
       <c r="B6">
         <v>0.81</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>0.69</v>
       </c>
       <c r="D6">
@@ -2943,13 +2949,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -2972,7 +2978,7 @@
       <c r="B10">
         <v>137.09</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <v>259.55</v>
       </c>
       <c r="D10">
@@ -2995,7 +3001,7 @@
       <c r="B11">
         <v>7.03</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="32">
         <v>9.27</v>
       </c>
       <c r="D11">
@@ -3018,7 +3024,7 @@
       <c r="B12">
         <v>0.48</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <v>0.56999999999999995</v>
       </c>
       <c r="D12">
@@ -3068,13 +3074,13 @@
       <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -3193,13 +3199,13 @@
       <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -3308,34 +3314,34 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -3448,13 +3454,13 @@
       <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -3479,7 +3485,7 @@
       <c r="B39">
         <v>70.349999999999994</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="32">
         <v>198.29</v>
       </c>
       <c r="D39">
@@ -3504,7 +3510,7 @@
       <c r="B40">
         <v>5.03</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="32">
         <v>8.34</v>
       </c>
       <c r="D40">
@@ -3529,7 +3535,7 @@
       <c r="B41">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="32">
         <v>0.46</v>
       </c>
       <c r="D41">
@@ -3595,13 +3601,13 @@
       <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -5703,7 +5709,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,7 +5756,7 @@
       <c r="D2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="35" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="26" t="s">
@@ -5762,7 +5768,7 @@
       <c r="J2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="N2" s="26" t="s">
